--- a/Exercises.xlsx
+++ b/Exercises.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27804"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2023-2024\summer\Models\TIMES_MID_STUDENTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IntegratedEnergyResourcePlanning-2024summer/Shared Documents/MODELS/STUDENTS_MID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9F51C6-6CEB-4B5A-927D-0B2F3B72AA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{8E7E7E68-47C2-4AFD-A2CD-5C9F49CD9E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21DF9BD5-8DB3-4106-B400-CD4C36E54660}"/>
   <bookViews>
-    <workbookView xWindow="744" yWindow="1668" windowWidth="34560" windowHeight="13644" xr2:uid="{350C5237-3553-491D-BF31-2ACD4CBBECDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{350C5237-3553-491D-BF31-2ACD4CBBECDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,30 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Create a bug in data</t>
   </si>
   <si>
     <t>In SUP file create a contradictory constraint for ACT_BND attribute, e.g. Lower bound &gt; Upper bound.</t>
-  </si>
-  <si>
-    <t>Create a more realistic representation of electricity transmission and distribution</t>
-  </si>
-  <si>
-    <t>Check in ARE "Statystyka Elektroenergetyki Polskiej" how much electricity is consumed at each voltage level</t>
-  </si>
-  <si>
-    <t>Assign efficiency of transmission and distribution according to data in the BALANCE sheet</t>
-  </si>
-  <si>
-    <t>Assigning to them demand values according to statistical data</t>
-  </si>
-  <si>
-    <t>In ELC file create new processes to represent three voltage levels in the grid (HV-HV, HV-MV, MV-LV) - see diagram in the sheet SCHEM_ELC</t>
-  </si>
-  <si>
-    <t>How VedaOnline reports GAMS errors?</t>
   </si>
   <si>
     <r>
@@ -77,25 +59,40 @@
     </r>
   </si>
   <si>
+    <t>How VedaOnline reports GAMS errors?</t>
+  </si>
+  <si>
+    <t>Dummy Processes</t>
+  </si>
+  <si>
+    <t>Revert previous buggy ACT_BND bound</t>
+  </si>
+  <si>
     <t>Set an upper bound on Hard Coal Mining Process &lt; 400 PJ (less than needed for HC Power Plants)</t>
   </si>
   <si>
-    <t>Dummy Processes</t>
-  </si>
-  <si>
-    <t>Revert previous buggy ACT_BND bound</t>
-  </si>
-  <si>
     <t>Check up the Results - how is the demand for Hard Coal covered?</t>
   </si>
   <si>
     <t>How do you think, if Dummy Processes are enabled by default, what prevents them from showing up in the results under normal circumstances?</t>
   </si>
   <si>
+    <t>Create a more realistic representation of electricity transmission and distribution</t>
+  </si>
+  <si>
+    <t>In ELC file create new processes to represent three voltage levels in the grid (HV-HV, HV-MV, MV-LV) - see diagram in the sheet SCHEM_ELC</t>
+  </si>
+  <si>
+    <t>Assign efficiency of transmission and distribution according to data in the BALANCE sheet</t>
+  </si>
+  <si>
+    <t>Upload and synchronize the model. Can you see your changes in Items View?</t>
+  </si>
+  <si>
     <t>New demands</t>
   </si>
   <si>
-    <t>Upload and synchronize the model. Can you see your changes in Items View?</t>
+    <t>Check in ARE "Statystyka Elektroenergetyki Polskiej" how much electricity is consumed at each voltage level</t>
   </si>
   <si>
     <t>In DEM file, create new demand commodities accordingly</t>
@@ -110,7 +107,7 @@
     <t>Check in Veda Attributes the attribute SHARE - how can you use it here?</t>
   </si>
   <si>
-    <t>Introduction to scenario files</t>
+    <t>Assigning to them demand values according to statistical data</t>
   </si>
   <si>
     <t>Introduction to data interpolation and extrapolation in VEDA/TIMES</t>
@@ -143,6 +140,9 @@
     <t>Can you see the change in PV capacity in the results? How does it appear in Items View?</t>
   </si>
   <si>
+    <t>Introduction to scenario files</t>
+  </si>
+  <si>
     <t>From "Files for Later\SuppXLS" copy Scen_FUEL_PRICE_PROJ file into \SuppXLS folder</t>
   </si>
   <si>
@@ -165,6 +165,21 @@
   </si>
   <si>
     <t>Introducing new prospective technologies</t>
+  </si>
+  <si>
+    <t>From "Files for Later\SubRES_TMPL" copy SubRES_NEW_PP.xlsx file into \SubRES_TMPL folder</t>
+  </si>
+  <si>
+    <t>Upload the new file (remember to put it into \SubRES_TMPL folder folder)</t>
+  </si>
+  <si>
+    <t>Look at the attributes in the top FI_T table. Which attributes are new?</t>
+  </si>
+  <si>
+    <t>Synchronize and run the model up to the year 2050. Check up the results.</t>
+  </si>
+  <si>
+    <t>Add a new process of your choice. Define the process and commodities if necessary. Set values for attributes. Upload, synchronize and run the model.</t>
   </si>
 </sst>
 </file>
@@ -207,19 +222,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,13 +565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D5A3CB-E4FC-4640-8CC7-0406997111D7}">
-  <dimension ref="B2:C43"/>
+  <dimension ref="B2:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.45"/>
   <cols>
     <col min="3" max="3" width="61" customWidth="1"/>
   </cols>
@@ -570,52 +584,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="34.799999999999997">
+    <row r="3" spans="2:3" ht="34.9">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1.5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="34.799999999999997">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="34.9">
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="34.799999999999997">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="34.9">
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -623,93 +637,93 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="34.799999999999997">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="34.9">
       <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="34.799999999999997">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="34.9">
       <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="34.799999999999997">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="34.9">
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2">
         <v>3</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="34.9">
+      <c r="C20" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="34.799999999999997">
-      <c r="C20" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="34.9">
+      <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="34.799999999999997">
-      <c r="C22" s="1" t="s">
+    <row r="23" spans="2:3" ht="34.9">
+      <c r="C23" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="34.799999999999997">
-      <c r="C23" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="2">
         <v>4</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>21</v>
+      <c r="C27" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="52.15">
+      <c r="C29" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="52.2">
-      <c r="C29" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="C31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="34.9">
+      <c r="C32" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="34.799999999999997">
-      <c r="C32" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -717,10 +731,10 @@
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="34.799999999999997">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="34.9">
       <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
@@ -740,8 +754,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="C39" s="1" t="s">
+    <row r="39" spans="2:3" ht="34.9">
+      <c r="C39" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -759,8 +773,38 @@
       <c r="B43" s="2">
         <v>6</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="C45" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" ht="34.9">
+      <c r="C49" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -769,8 +813,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="304d45e6d5149914c9d9c7e63f737d0c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab2ce33a85fc3634f0c8a3fa79a735e" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="53f028f4d2c54806023f486367284495">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50499fff843428d68044e1161109df82" ns2:_="" ns3:_="">
     <xsd:import namespace="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
     <xsd:import namespace="58a8bd51-6561-42ef-8e0a-a55781e8d45f"/>
     <xsd:element name="properties">
@@ -819,7 +878,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="58a8bd51-6561-42ef-8e0a-a55781e8d45f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Udostępnianie" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -838,7 +897,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Udostępnione dla — szczegóły" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -855,8 +914,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -945,29 +1004,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35DFB048-069F-4E38-B952-EA2412472980}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0CC1DF7-6C10-4560-94F7-03BD7ACEC9FD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{307F64AF-DF52-4249-8CFE-9732A8678082}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F1DA73-6966-4EC8-B08C-6F3191122271}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{879E0224-A09A-4E8D-A4DC-ED0E0B8A8CFB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA0D0AE7-9E3D-492D-938C-535FC1378576}"/>
 </file>